--- a/NTU_questionnaire.xlsx
+++ b/NTU_questionnaire.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brain/Documents/R/shinyapp/NTU_conscence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brain/Documents/R/shinyapp/NTU_consensus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA99A5DC-C3FD-D64E-8C15-A17039D49C19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5710E5CB-BFE1-8547-8B08-CCE237FD2D77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{139BBD6C-F059-CF45-93B8-FD1CF61F9114}"/>
+    <workbookView xWindow="2180" yWindow="3180" windowWidth="21240" windowHeight="14820" xr2:uid="{139BBD6C-F059-CF45-93B8-FD1CF61F9114}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,75 +30,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
-  <si>
-    <t>題目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
   <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>詳解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 台北校區（包括校總區、水源校區、城中校區）外，還有位於新竹的2. 竹北校區、位於高鐵站旁的3. 雲林校區，以及位於南投的4. 臺大實驗林、5. 臺大山地實驗農場！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台大的學生（大學部+研究所）超過3萬多人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「敦品勵學，愛國愛人」是台大的校訓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目前（2018-2019年）台大學生人數：學士班 16,635、碩士班 11,726和博士班 3,468，總計 31,829人，同時是全臺唯一學生人數超過三萬的高等教育學校。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>「敦品勵學，愛國愛人」，由第四任校長傅斯年訂定。</t>
-  </si>
-  <si>
-    <t>在臺北帝國大學時期的二號館是目前台大的園藝系系館</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>台大在全台總共有五個大校區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台大面積廣大，佔臺灣土地總面積的百分之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台大總面積約3萬4千公頃。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>醉月湖從曾經辦過滑龍舟比賽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>醉月湖本來就沒橋(所以醉月湖鬼故事不可能)，到湖心亭要划船，以前還有辦過端午龍舟比賽，但因為溺死過人所以從此不能再划船。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>總圖的鐘樓是曾經敲打上下課鐘聲的地方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,18 +56,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>校史館（舊圖書館）曾經在二戰時期被空襲的飛彈砸過</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台大動科系養的牛會在早晨時，放去總圖前的振興草坪上吃草</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>校史館以前真的在二戰時被子彈砸破天花板，目前屋町還可以看見彈痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帝大時期的一號館為現在的植微係+戲劇系系館、二號館為物理系舊館、三號館維農化系系館、四號館為園藝系系館、五號館為生工系系館</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,15 +68,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>國立臺灣大學聯盟由台大、台科大和國北大三校組成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台大的 24 小時緊急聯絡電話為 3366-9911</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前擔任過中華民國的副總統都不是台大的校友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>楓香道位於小椰林道至電資院（電機二館），兩側有活大和工綜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>該條為水衫道。而楓香道則是從社科院大樓與語言中心的側門開使，連接到水衫道，兩側有應用力學館、德田館等。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,15 +105,381 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 號出口連接舟山路；2 號出口則是連結女宿出口的小門。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曾經台大有 3 座洞洞館，現在僅存一棟農業陳列館</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>洞洞館曾有的三棟聯合建築，現在僅存一棟農業陳列館，已拆除的兩棟是當時的人類學系系館和哲學系系館。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅鐘每次響21下，因為傅斯年校長認為「一天只有二十一小時，剩下的三小時是用來沉思的。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅鐘的鐘聲每次都會敲響 21 下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總校區內（不包含長興和水源地區）的便利商店都是全家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大的校花是杜鵑花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大的校樹是大王椰子樹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大環安衛中心早在七年前由中興保全協助開始規畫，2012 年裝設 25 台，2013 再增 30 台。至今台大擁有固定式 AED 55 台，移動式 4 台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雖然說台大組織規程規定最多只能三名副校長，但在今年（2019）八月，台大宣布首創功能性「醫學」副校長！前台大醫學院院長張上淳將成為台大第四名副校長，專管台大醫療體系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大共有 4 個副校長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Q24</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>Q26</t>
+  </si>
+  <si>
+    <t>Q27</t>
+  </si>
+  <si>
+    <t>Q28</t>
+  </si>
+  <si>
+    <t>Q29</t>
+  </si>
+  <si>
+    <t>Q30</t>
+  </si>
+  <si>
+    <t>Q31</t>
+  </si>
+  <si>
+    <t>Q32</t>
+  </si>
+  <si>
+    <t>Q33</t>
+  </si>
+  <si>
+    <t>Q34</t>
+  </si>
+  <si>
+    <t>Q35</t>
+  </si>
+  <si>
+    <t>Q36</t>
+  </si>
+  <si>
+    <t>Q37</t>
+  </si>
+  <si>
+    <t>Q38</t>
+  </si>
+  <si>
+    <t>Q39</t>
+  </si>
+  <si>
+    <t>Q40</t>
+  </si>
+  <si>
+    <t>1981年陳文成博士離奇死亡於台大研究生圖書館旁案件，真相至今未明。國民黨政府曾聲稱他是畏罪自殺，陳文成的家人與朋友指控是遭到政府謀殺。到台灣參與驗屍的美國法醫生理學家及卡內基美隆大學教授，則認為這是一起他殺案件。在楊泮池校長任內，2015年3月21日，台大校務會議正式通過，將其陳屍地點命名為「陳文成事件紀念廣場」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大校總區共有 4 間福利社（員生消費合作社），分別是大福、中福、小福和小小福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大是個學風自由的學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大修課的選擇非常多元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大的社團風氣很興盛</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANSWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005年臺大舉辦全校票選活動，票選出「臺大十二景」，分別為：
+1.新總圖書館、2.醉月湖、3.椰林大道與舊校區、4.傅鐘、5.台大校門、6.傅園、7.舊醫學院大樓、8.生態池、9.舟山路、10.舟山路、11.校總區農場、和12.共同三松。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大校園的網路 ip 代碼的前兩組號碼為 140.112.xxx.xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大校內建物多由「十一溝面磚」作為外牆裝飾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1928年成立的臺北帝國大學，校內建物多由「十三溝面磚」作為外牆裝飾。即便帝大被國立臺灣大學接收後，許多新的校園建物仍以此磚貼面。正因為「十三溝面磚」在臺大校園歷史悠久，使用普及，因此被視為臺大校景的重要圖騰。
+「十三溝面磚」是由於磚面刻有十三道山筋（凸起），山筋間隔十二道V字形溝痕，磚面兩側各以半V字面溝痕收尾，因共計十三溝，故得名之。但也有人認為溝的數量應該只能包含中間完整的部分，旁邊兩側不算，因此認為其實只有十二溝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大的員生消費合作社在校總區內只有大福、小福和小小福而已，而城中校區有醫學院門市和醫院門市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>據說從前從前，有一窈窕淑女和男友鬧分手，傷心欲絕，便到湖心亭跳湖自殺，自此學校為了避免悲劇再發生QQ，就把醉月湖的橋給拆了。但這是假的。
+事實上，醉月湖從來都沒有橋。在以前，醉月湖還可以划船，而湖心亭就是學生的中繼站。但有天，一位女學生不幸溺斃，學校從此下禁令，把船撤走，並在湖邊建起柵欄。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次腳踏車被吊水源時，領回需繳交 50 元的罰鍰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每學年自行車遭拖吊達 3 次（含）以上者，每次領回時要繳交移置費 50 元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大免費提供從總校區與中研院的來回接駁車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校史館以前真的在二戰時被飛彈砸破天花板，目前屋町還可以看見彈痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了總校區與中研院之外，台大還有提供總校區與城中校區來回的免費接駁車。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前在校總區內部（不包含水源和長興宿舍）區域，在活大、二活、女九、志雄單車店附近都有全家便利商店，但是在國青宿舍那邊有萊爾富便利商店。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大校訓是「敦品勵學，愛國愛人」，由第四任校長傅斯年訂定。
+「親愛精誠」和「窮理致知」分別為政大和成大的校訓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺大校園最常的是平戶杜鵑，分為豔紫、雪白、粉白、大紅、白琉球杜鵑等品種。
+台灣原生杜鵑方面，原生種烏來杜鵑，零星分布於校園，在園藝系館及森林系館外的花圃中能夠發現。另外也能看到金毛杜鵑。從二到四月，不同種類杜鵑花依序開花，妝點臺大校園。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前總共有十個博物館，包括：
+校史館、人類學博物館、地質標本館、物理文物廳、昆蟲標本室、農業陳列館、植物標本館、動物博物館、檔案展覽室、醫學人文博物館等。題目所述兩者博物館不算在內。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 號出口連接舟山路；3 號出口則是連結女宿出口的小門。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大總共有五個大校區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108 年台大的大學部+研究所學生超過 3 萬人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大的校訓是「親愛精誠、窮理致知」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大的願景是「華人頂尖、世界一流」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大的園藝系系館是過去台北帝國大學時期的二號館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大面積廣大，佔台灣土地總面積的 1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉月湖曾經是有座橋的，可以連結到湖中央的涼亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在二戰時期，校史館（舊圖書館）曾被空襲的飛彈砸過</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰林大道（校門口到森林系、正興草坪前）任一側的椰子樹數量皆少於 100 顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大的校慶紀念日為11月15日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大是全台 AED (自動體外心臟電擊去顫器）密度最高的學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前台大只有活大一處設立「性別友善廁所」而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「陳文成事件紀念廣場」的命名是為了紀念陳文成博士在學術上的貢獻以及追求學術自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大的公共衛生學院的學系唯有公共衛生學系；而法律學院也只有法律學系這 1 個學系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大十個博物館群中，包括：魚類標本館和種子博物館等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「臺大十二景」之景點，包括：共同三松和舊醫學大樓這兩者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果從校門口往總圖書館方向望去，椰林大道左邊的大王椰子樹有 99 棵，右邊則是有 102 棵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺大官方將中華民國接收改制的日期11月15日做為臺大的校慶紀念日，但建校時間依然以1928年臺北帝大的建立視為臺大的起始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大對於藝術人文領域非常重視</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1949 年，四六事件學潮過後，於當年十一月，傅斯年首次主持台大校慶，在致詞時他表示，「日本時代這個大學的辦法，有他的特殊目的，就是和他的殖民政策配合的，又是他南進政策的工具。我們接收以後，是純粹的辦大學，是純粹的為辦大學而辦大學，沒有他的那個政策，也不許把大學做為任何學術外的目的與工具。」最後他以荷蘭哲學家史賓諾沙認為「宇宙的精神」在於追求真理的概念──「我們貢獻這所大學于宇宙的精神」與師生共勉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「我們貢獻這所大學于宇宙的精神」是台大人懷有的態度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中華民國的副總統都不是台大的校友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「楓香道」起於小椰林道延至電資學院（電機二館），兩側有活大和工綜等大樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 台北校區（包括校總區、水源校區、城中校區）外，還有位於新竹的 2. 竹北校區、位於高鐵站旁的 3. 雲林校區，以及位於南投的 4. 臺大實驗林、5. 臺大山地實驗農場！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國立臺灣大學聯盟由台大、台科大和國北教大三校組成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了活大，綜合教學館一樓和社會社工系館也有性別友善廁所喔！除此之外，自 2015 年台大校務會議通過台大學生會提案「國立台灣大學性別友善廁所設置辦法」，將來大每一棟建築物至少要設置一處男女共同的性別友善廁所。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +542,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,445 +863,572 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF5B79E-A691-5C42-8F01-77F8A2C5F0B7}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="139" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82" customWidth="1"/>
     <col min="4" max="4" width="186.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="8" spans="1:4" ht="32">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="80">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="32">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="32">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="80">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+    <row r="31" spans="1:4" ht="32">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="33" spans="1:4" ht="32">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="64">
+      <c r="A34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
